--- a/500all/speech_level/speeches_CHRG-114hhrg22179.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22179.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. The Subcommittee on Commerce, Manufacturing, and Trade will now come to order. I will recognize myself for 5 minutes for the purpose of an opening statement.    Today we are continuing our Disrupter Series and focusing today on additive manufacturing, also what is known as 3D printing. Additive manufacturing has disrupted the industries it has impacted, not just by challenging incumbents, but also by lowering cost and increasing efficiency.    Harnessed properly, this is another example of how innovation is creating jobs and opportunity and helping set the stage for a revival of manufacturing in the United States.    Additive manufacturing has been around since the 1980s with the patent for stereolithography issued to Charles Hull, the founder of one of the companies testifying today, 3D Systems. About 30 years later, surveys show that about two-thirds of industrial manufacturers say they are implementing additive manufacturing either by experimenting or using it to create prototypes of finished products, and the 3D printing industry is expected to grow from the $6 billion it is today to over $20 billion in a mere 5 years' time.    3D printing has already woven its way into our manufactured products in subtle ways. For example, some of the commercial airliners we all fly will soon use 3D-printed parts in their engines, and GE will testify about that today. Many of the cars on the road have had their development sped up dramatically thanks to 3D-printed prototypes.    Additive manufacturing has plugged itself into a growing proportion of the manufacturing supply chain because the designs are flexible and they are a naturally better solution for certain tasks.    But 3D printing is also making a splash in less subtle ways. People around the globe are benefitting from prosthetic limbs, which were otherwise unaffordable. Surgeons can create accurate surgical guides which reduce errors and as a result will save lives. Scientists have begun experimentally printing human cell structures using a person's DNA. That resulted as a logical use of life's own building blocks, but certainly potentially revolutionary for patients.    In my district, 3D printing is enabling businesses to get the job done more efficiently. I have a constituent back home, his name is Adrian Murray, he runs a hotrod modification shop called Painless Performance, and he provides customers with custom wiring harnesses for their classic cars. These parts are no longer manufactured on an assembly line, but using a 3D printing prototype offered by the Specialty Equipment Manufacturers Association, Painless Performance is able to speed up the development process. And I think we are going to show a video clip of that, if the technology doesn't fail us, and I will continue talking while that runs.    [Video shown.]    As the subcommittee with jurisdiction over vehicle safety, we are especially interestedin ways that vehicle suppliers and manufacturers are using polymers and plastics to enhance safety.    Can we just turn the sound down on that, because it is mostly the visual that we want.    Carbon fiber-reinforced plastics have 12 times the energy absorption capabilities, while adding half of the weight of some comparable metal parts. Additive manufacturing is helping automakers and part suppliers integrate these innovative materials into cars, which is making a safer and improving fuel efficiency. As 3D printers become more affordable, the universe of people able to print 3D-printed objects on their own expands.    One of the things in research for this hearing, my staff found an article for me, it is actually from Australia, that it talks about Ralph Mobbs, a neurosurgeon from Prince of Wales Hospital in Sydney. And in resecting a tumor in a patient, he had to replace the top two vertebras, pretty difficult operation, and, obviously, without the proper type of prosthetic it would have been impossible.    So the surgeon worked with an Australian medical device manufacturer to craft replicas of the patient's top two vertebra out of titanium. I just want to read you a quote from the surgeon--and mind you, he is from Australia, so he talks funny, I am sure.    ``To be able to get the printed implant that you know will fit perfectly because you have already done the operation on a model, it was a pure delight. It was as if someone had switched on a light and said, 'Crikey, if this isn't the future, well, I don't know what is.'"    So, Dr. Mobbs, I agree with you: If this isn't the future, I don't know what is.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. Good morning, Chairman Burgess and members of this morning's panel. Mr. Chairman, thank you for holding this hearing on 3D printing.    For many of us, when we think of 3D printing, we think of plastic toys, key chains, and other trinkets, but 3D printing is about more than just the novelty of printing in plastic. This technology has many applications that we are only starting to explore.    3D printers enable small-scale personalized production that gives consumers more choice and convenience. Consumers can order affordable custom-printed items, from cell phone cases to shoes and prescription eyewear.    3D printers help product designers by allowing them to print prototypes more easily. Manufacturers can print replacement parts on demand. Prosthetics can make customized to make people who have lost a limb more comfortable. And recently, a 3D-printed vertebra, as our chairman has indicated, was implanted into a child with bone cancer.    While today we are mostly printing in plastic and metal, 3D bioprinting opens a whole new world of possibilities in the medical field. Doctors may one day be able to grow needed organs for transplants or skin for prosthetic limbs or skin grafts.    The future potential of this technology is one more reason why we need to increase our Federal investments in research and innovation.    But as we think about the tremendous potential of 3D printing, we also need to consider possible risks and challenges. Here are some of the questions on my mind. How should we protect consumers when the consumer doesn't buy the product but rather the blueprint to make a product? How does 3D printing work with our existing laws on intellectual property? And what should people be able to make with 3D printers?    I am especially concerned about 3D-printed weapons. Think about this: If someone has access to a 3D printer, all they need is the right blueprint. When the gun buyer is now the gun manufacturer, who does the background check? Who is responsible for keeping weapons out of the wrong hands? This isn't theoretical. The first 3D-printed gun was made 3 years ago.    An all-plastic gun would be a violation of the Undetectable Firearms Act, but a law banning the manufacture of nonmetal guns only goes far when a plastic firearm can be made at home. And we may not be far from seeing metal guns being printed at home.    Those who design blueprints for 3D printing and provide 3D printing capability must take responsibility to ensure that their business does not endanger other lives, and we in Congress need to make sure that our laws are up to date with today's technology.    I look forward to hearing from our witnesses on the potential for 3D printing as well as your perspectives on how we deal with some of these challenges.    Having said that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. I do.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>412543</t>
   </si>
   <si>
-    <t>Joseph P. Kennedy III</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kennedy. I will take 30 seconds.</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Orringer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Orringer. Thank you. Thank you, Mr. Chairman, Congresswoman Clarke, and members of the distinguished subcommittee. Thank you for the invitation to address you today.    I am honored to discuss a critically important topic, how additive manufacturing is revolutionizing the delivery of health care. In 1983----</t>
   </si>
   <si>
@@ -133,27 +118,18 @@
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman.    The Chair recognizes Mr. Amling for 5 minutes to summarize your opening statement, please.</t>
   </si>
   <si>
-    <t>Amling</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Amling. Good morning, Chairman Burgess, Ranking Member Schakowsky, members and staff of the committee, fellow witnesses, and attendees. My name is Alan Amling, and I am the Vice President of Marketing for UPS Global Logistics and Distribution. And during my 23-year tenure, I have helped our business develop and grow across all aspects of the e-economy and to launch innovative new solutions like carbon-neutral shipping.    While you are likely familiar with UPS' fleet of more than 100,000 brown trucks and our 425,000 employees globally, you may not know much about our supply chain business. More than 100 years ago, UPS started as a bike messenger in Seattle. In 2016, we operate one of the largest airlines in the world and offer global supply chain services, including ocean and air freight, ground freight, brokerage, and contract logistics, in addition to our more familiar brown package services.    Our global logistics network, made more intelligent and efficient, has the potential to radically reshape and reinvent economies. That is why we are interested in 3D printing, which could disrupt traditional manufacturing the way that e-commerce has disrupted traditional retail. Certainly, as this new technology becomes more widely available, there will be bumps in the road and hurdles to overcome, but the power of 3D printing cannot be overstated. It is disruptive not just because it is new, but because it helps small businesses and entrepreneurs do what they already need to do today, only better and less expensively.    Therefore, as 3D printing revolutionizes manufacturing, it will also affect our business of supply chains and eventually product pricing and the end consumer experience. 3D printing effectively means that businesses no longer will face minimum quantities. They will be able to order what they need when they need it. Upfront tooling cost, which is a big expense for businesses both large and small, makes 3D printing ideal for small batch production runs. And there is no tax on complexity. And what I mean by that is there is no corresponding increase in cost for a more complex design like this.    The disruptive nature of 3D printing, therefore, will create opportunities, but it will also require adjustments. As it becomes possible to send product design instructions via the Internet and print products locally, small businesses and entrepreneurs will be able to move from the idea phase to the production phase more quickly and cost effectively. Instead of delivering a product from a warehouse, products could be delivered from a 3D printing service offered at a retail outlet, such as a UPS store or right to your door.    Disruptive technology like 3D printing stands to help our customers do more with a lower environmental impact, all while benefitting consumers like you and me. It has the potential to increase profit margins within the supply chain by reducing cost, and that is good news for small businesses and entrepreneurs especially.    Additionally, it is important to understand that disruption will happen. There is almost no stopping the spread of technology and innovation. So we are either in the game or watching it, and I know what side of the equation UPS wants to be on.    And to that end, in anticipation of 3D printing's impact, UPS has already started putting 3D printers into UPS store locations. Our initial customer response was so positive that we have since expanded to more than 60 stores, with plans for continued growth.    Likewise, through our internal venture capital arm, we invested in a 3D printing manufacturer named CloudDDM and put their production facilities in the heart of our Louisville supply chain campus, just minutes from our global air hub. The operation has been up and running for a year and allows companies to order parts and prototypes to be printed late into the evening and have them delivered anywhere in the U.S. by the next morning. In doing so, UPS has helped to create a model that actually increases package demand and differentiates the company from other carriers. Now that is groundbreaking stuff.    Today, UPS is learning and adapting to new technologies, something we have done many times over our more than 100 years of operation. As proven over and over throughout history, those who embrace innovation and change early and often are the most richly rewarded, and disruptive technology, like 3D printing, has that incredible potential.    I commend the committee for their interest in understanding more about 3D printing and welcome this opportunity to share what we have learned up to this time. Thank you for your time today, and I look forward to answering questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman.    Mr. Morris, you are recognized for 5 minutes to summarize your opening statement, please.</t>
   </si>
   <si>
-    <t>Morris</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Morris. Good morning, Chairman Burgess, Vice Chairman Lance, Ranking Member Schakowsky, and members and staff of the committee. My name is Ed Morris. I am the Vice President and Director for America Makes, the National Additive Manufacturing Innovation Institute, and we are consciously dual branded as America Makes, the National Manufacturing Innovation Institute.    The maker community wants to deal with America Makes. We are happy to deal with industry. In the maker community you get a little leery of institutes, too formal, too official, so that is the reason for the dual branding.    We are operated by the National Center for Defense Manufacturing and Machining, a not-for-profit 501(c)(3) company that has been in existence for over 14 years solving technical, manufacturing, and business problems for our clients.    Our mission at America Makes begins with, why do we exist? And as we all know, the U.S. manufacturing economy, the economic engine of manufacturing, is nowhere near as robust as it has historically been or needs to be. So what are we going to do about that? We are taking this incredible technology of additive manufacturing and accelerating it in the United States by dealing with the technical issues, the technical barriers, doing technology transition to companies for real products, new companies, et cetera, and then training the next-generation workforce and reinvigorating the interest of the youth of America in manufacturing as a well-paid, excellent career.    Why additive manufacturing? As has been shared, it is a disruptive game changer. And game changer is often overused, but I am comfortable with declaring that additive manufacturing absolutely is a game changer, fundamentally because when you change the game, you change the rules, and this has a whole new set of rules.    We have a lot of people come to us and talk about the excitement and their interest in additive manufacturing and say: Ed, I want to get involved in additive manufacturing.    ASME has identified seven different types of additive manufacturing, and I realize when people approach us, it is like asking me, ``Hey, Ed, I want to cook dinner. Help me cook dinner.'' And to be more specific, what heat source are you going to be using, lasers, et cetera? What materials are you going to be using? Are you going to be using polymers or plastics? Are you going to be using metals? Are you going to be using ceramics? Are you going to be using organic tissue? Are you going to be using human tissue?    Then what are you going to do with it? What is for dinner? Are you going to be serving plastic parts, mechanical parts, electronic parts? Food? 3D Systems did a demonstration of printing Oreo cookies for a demonstration that we were involved with. And you can print body parts.    One of the things that excites me is the potential of integrated mechanical and electronic 3D printing devices, and one of our key members, the University of Texas at El Paso, with the W.M. Keck Center for 3D Innovation, we have recognized them as our first satellite center, broadening our footprint in a very substantial way across the United States.    Our public partners in this adventure are the Department of Defense, the Department of Energy, Department of Commerce, Department of Education, NASA, the National Science Foundation, FAA, and the FDA, and we are strong believers in the power and wisdom of a public-private partnership.    We currently have 163 members. In correcting an era in the printed testimony, we have 55 small businesses, not 85, 43 large businesses, 13 Government partners, 10 nonprofit organizations, and 4 manufacturing extension partners, or MEPs, and they are a very valuable partner in helping doing the technology transition for this.    As of January 2016, we had an $87 million portfolio of research and development. Sample projects, our use of additive manufacturing in the foundry business, led by YoungstownBusiness Incubator, revolutionizing the foundry casting business, making sure it stays on shore, taking out costs, cycle time, and improving product performance.    We also have a project on biomedical devices with the University of Pittsburgh working on optimizing magnesium alloy for bioabsorbable cranial implants.    Applying the partnership model to education, we are doing lots of activities, including a certification program with the Society of Manufacturing Engineers, a fellowship program with the American Society of Mechanical Engineers.    We are partnering with the U.S. Department of Veterans Affairs as part of a Google.org grant to train returning military veterans. We think that is a very important service to the Nation. What better source of expertise and competency to tap, and innovative people as well.    And then we are also revolutionizing STEM education for those that want hands-on learning, making math relevant in what you produce with the capabilities.    Regarding the public-private partnership, its ability to, with cost share as the economic model, we think it is a very wise policy and business practice. With the taxpayers' investment on topics of mutual interest we are almost able to double the taxpayer's money. The industry side is able to maximize their research and development dollars. So it really is in line with the Better Buying Power vision of the Department of Defense to optimize contractor research and development and internal research and development.    And then finally, in closing, quoting a good friend, Steve Welby, the honorable secretary of defense for research and engineering, with this technology, let's disrupt ourselves before others disrupt us. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman.    Dr. Herderick, you are recognized for 5 minutes. Just summarize your opening statement, please.</t>
   </si>
   <si>
-    <t>Herderick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Herderick. Thank you. Chairman Burgess, Vice Chairman Lance, Ranking Member Schakowsky, and members of the committee, it is a privilege to share GE's thoughts on 3D printing, which represents the larger digital industrial revolution happening in the U.S. and globally.    Today, a designer can create a computer-aided design model of a part and digitally transmit it to a 3D printer to be directly manufactured. Increasingly, new designs and processes like this are being connected and managed through a digital thread where the freedom of design and manufacturing seemingly has no limits. One of GE's engineering leaders appropriately captured it when she said: Complexity is free.    My name is Dr. Ed Herderick, and I am the additive technologies leader for GE helping to spread the application of additive technology across GE's industrial portfolio. This portfolio spans across industries that build, move, power, transport, and cure the world, from jet engines and power-generation machines, to locomotives, medical imaging systems, and more.    The emergence of 3D printing and additive technologies in industry has been both sudden and disruptive. Recently, Boeing and Airbus conducted the first flight tests for their 737 MAX airplane and A320neo single-aisle jets with GE LEAP engines.    LEAP is the world's first jet engine to include 3D-printed fuel nozzles, one of which I have here on the table, which as the engine's fuel injector, mixing fuel and air in precise ways to achieve maximum fuel efficiency and lower emissions. Using metal printing, the fuel nozzles are more fuel efficient, lighter weight, and more durable compared to those made with conventional technologies.    The production of 3D-printed metal parts in jet engines would have been almost unheard of even a decade ago. Today, we are asking what else can be printed in the engine to drive performance even higher. As it is, GE Aviation will be producing 35,000 printed fuel nozzles per year at the world's first mass additive production facility in Auburn, Alabama. By 2020, we will have produced more than 100,000 metal-printed fuel nozzles.    This success of industrial implementation of additive technology in the aerospace industry is paving the way for broader applications in other industries. GE's use of additive technologies in aviation is only the tipping point of an exciting transformation underway across our 400-plus factories. By 2025, we expect additive manufacturing methods will be used in the design and manufacture of more than 20 percent of GE's new product concepts.    Our efforts in additive are part of a much broader initiative to build a digital thread through manufacturing that transforms our factories into ``Brilliant Factories.'' It is through this digital thread where additive technologies can truly emerge and realize their full potential for industries of all kinds.    In many ways, the excitement and emphasis on additive manufacturing of metals and industrial materials is the product of a more than 20-year research odyssey. As early as 1993, researchers at GE Global Research demonstrated the feasibility for binderless sintering of metal powders.    It is interesting to note the development and material advancement between then and now. In 1993, the laser used had only 7.5 watts of power, a scanning speed of 2 millimeters per second, and produced parts that were 30 percent dense. Today, we are using lasers with 200 to 1,000 watts of power, scanning speeds of 1,000 millimeters per second, and produce parts that are greater than 99.9 percent dense straight out of the box.    Further, when implemented with care, the performance of additively produced metal parts today meets and even exceeds that of standard casting techniques, and this is a critical point. I cannot emphasize enough the importance of understanding the physical metallurgy in order to produce this high-quality repeatable performance as the materials' properties are determined during the printing process.    Manufacturers have had centuries to understand the physical properties of materials that have been traditionally milled or machined into the desired shape. With additive, and metals in particular, we have been working for 20 years. Fortunately, GE, through its Global Research Center, is home to some of the world's foremost experts in materials and additive techniques to help us make these evaluations.    I would like to highlight a particular example where GE printed a miniaturized version of a steam turbine rotor to test a new idea GE researchers have for reducing the cost of water desalination. The rotor, roughly 6 inches long, is being used to demonstrate cost-effective water and salt separation. In that case, metal printing empowered the team to design something that could not be made in any other way and has the potential to dramatically improve the energy efficiency for this critical water desalinization process.    In order to accelerate new applications like this one, GE has built a new facility in Pittsburgh, Pennsylvania, dedicated solely to 3D printing called the Center for Additive Technology Advancement. And that was an ARPA--E program and partnership.    So I would like to highlight some of our work and the critical importance of building a robust ecosystem in additive technologies across the U.S. We are proud to be a partner of and applaud the America Makes National Additive Manufacturing Innovation Institute in Youngstown, Ohio, which has been a leader in building this ecosystem of manufacturers, machine makers, and other key stakeholders in the additive supply chain. As we go forward, GE will continue to look for ways to strengthen the additive ecosystem here in the U.S.    In closing, additive manufacturing is a transformative technology that is opening up new frontiers and is an important tool in realizing GE's ``Brilliant Factory'' vision. It is and will have far-reaching impacts that accelerate the introduction of new high-performance products that will support global infrastructure for years to come.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
@@ -205,9 +181,6 @@
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman.    I encountered 3D printing in 2013. We had a manufacturing showcase, and Congressman John Sarbanes brought in a business from his district, Direct Dimensions, and they took a picture, three or four, and made this 3D print, a bust of me in plastic. It was very interesting and a little strange. But I did save it.    I want to say this is part of our series, as I am sure our chairman said, of our Disrupter Series, and what we are hearing today are the wonders of this and the positive.    And I just want to say before I ask questions along those lines, that these technologies can be in the hands of all kinds of people as we go forward. And I hope, Mr. Chairman, that we will also have a hearing on what are the things that we ought to watch out for.    I know that Congresswoman Clarke raised the issue of the ability to produce perhaps small arms. But who knows? And so I think we ought to be looking ahead to and thinking about if there are threats to our country because of these kinds of new technologies and in the wrong hands, not only through our concerns about competition around the world and making sure that we can advance making an America, but actual threats.    But I wanted to focus on the positive too. At Northwestern University, which is in my district in Evanston, Illinois, researchers are pioneering biocompatible inks made of graphene that are used to 3D print scaffolding for tissue transplants and regeneration. Very exciting. These graphene structures can stimulate cell regeneration and also are cost effective.    So, Mr. Orringer, could these kinds of cutting-edge treatments become more widely accessible through the use of 3D printers?</t>
   </si>
   <si>
@@ -235,9 +208,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you very much.    It is great to have everybody here. What an interesting series we have had. And as I really grasp technology when I was in grad school in the mid-1990s, not even that long ago, and it just really disrupted the typewriter and the calculator industry because we did the same thing that they were already doing, just did it more efficient. I think also it disrupted the wite-out industry, when I got to go on a word processor, didn't have to use it anymore. But it really just already took what we were doing and just made it better.    And what is happening now is you are actually taking this technology and just doing things we could never do before. It is amazing in the body parts and the replacement, you couldn't do those vertebra probably in any other type of manufacture.    I have a manufacturing background, and we take blocks of steel and make dyes out of it. We whittle it down, for lack of a better term. That is actually what we do, just computer-controlled machines. We are now creating stuff by printing it. By being additive, I hope it doesn't replace what we do, but it certainly enhances the precision of what you can do in specific things. So it is fascinating to be here.    I am going focus with UPS. Their Worldport is just outside of my district. But a lot of your employees and a lot of your customers are in my district, Zappos shoes, Bestbuy.com, and Geek Squad, which is a pretty interesting place to go. They don't have a plant manager. They have a mayor. And they don't have community leaders. They have ambassadors. So it is just an interesting business concept, but great, great people to be around.    But a lot of it is based on supply chain. I know a lot of us think of UPS as--and you said it in kind of your opening statement--the brown trucks and the airplanes that are flying in and out of Louisville. But I am more interested in what UPS really does. You talked about it a little bit. I would just give you some time to elaborate on how UPS actually helps small businesses with supply chain management to build their businesses and how 3D printing is a big part of that mission.</t>
   </si>
   <si>
@@ -304,9 +274,6 @@
     <t>412290</t>
   </si>
   <si>
-    <t>Leonard Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman. A very interesting hearing.    Mr. Orringer, balancing health and safety is obviously an important mission for medical device manufacturers and Federal regulators alike. What steps are the Federal regulators taking in order to educate themselves and the public about 3D-printed surgical implants? Has this approach been proactive? And what else, in your judgment, could be done?</t>
   </si>
   <si>
@@ -331,9 +298,6 @@
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman. The gentleman yields back.    The Chair recognizes the gentleman from California, Mr. Cardenas, for 5 minutes for your questions, please.</t>
   </si>
   <si>
-    <t>Cardenas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cardenas. Thank you very much for imparting your knowledge with us on what is going on in this dynamic, fast-changing industry.    The first question is from my wife. When do you think that they will be able to make a husband's brain? I didn't say a human brain, I said a husband's brain to help someone pick up after oneself, remember anniversaries, et cetera. Just kidding, just kidding. That is the impossible, I know.    Now, on a more serious note, we have noticed that in America's libraries we have had an increase of donations and opportunities where libraries are investing in 3D printers now to the tune of over 400 libraries have access to little or no cost to individuals going to the library.    To me, this is a very important issue for making sure that we have access to as many minds and as many inquisitive folks so that they can get turned on to how wonderful it is and the potential of getting a job in the industry.    How committed is the industry to advancing that kind of effort?</t>
   </si>
   <si>
@@ -367,9 +331,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman.    And thank you all to your panelists for your actually exciting testimony. I wasn't sure when I was reading this initially.    But I think why this is so exciting is because I think this is the way to draw young people back into manufacturing. We have in central Indiana, in my district, about 50 middle and high schools that have 3D printers that are being utilized in the classroom. Indiana is one of the country's most manufacturing-intensive States.    And then before coming to Congress, I was senior vice president at our State's community college, and where I learned about 3D printing during that time period, but I think we still need to make sure that the adults and the educators who are working with our young people have an understanding about this 3D printing.    I had an event, and we welcomed 3D Parts Manufacturing to educate school counselors at a school counselor event, to try to educate them about 3D printing, because they are the ones who influence our children and get them excited about these things.    So I am curious, in expanding on the public-private partnerships, which I completely believe in, how do we do a better job bringing industry, collaborating with our educators and with either our nonprofits, and try and get the young people more engaged in 3D printing and skills that they need? What are some best practices you have seen? How do we expand this? Because I think it is one of the manufacturing tools of the future. What do we need to be doing better?    And believe it or not, I actually think calling the place where they work maker spaces actually helps because young people are not as interested in manufacturing, I think, as they are in making.    Mr. Morris, you want to start?</t>
   </si>
   <si>
@@ -389,9 +350,6 @@
   </si>
   <si>
     <t>412280</t>
-  </si>
-  <si>
-    <t>Gregg Harper</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman.    And thanks to each of you. It is an amazing technology, and we really are just only beginning to see what all we are going to be able to do in the future.    And, Mr. Amling, I don't have a question, but certainly welcome. UPS was my very first job in my life as a 15-year-old. I loaded an 18-wheeler every night with boxes. And I am the one who packs the trunk on the family trips.</t>
@@ -898,11 +856,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -924,11 +880,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -948,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -976,11 +928,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1000,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1028,11 +976,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1052,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1078,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1104,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1130,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1158,11 +1096,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1182,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1210,11 +1144,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1234,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1262,11 +1192,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1286,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1312,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1340,11 +1264,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1364,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1392,11 +1312,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1416,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1444,11 +1360,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1468,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1496,11 +1408,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1520,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1548,11 +1456,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1572,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1600,11 +1504,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1624,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1652,11 +1552,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1676,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1704,11 +1600,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1728,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1756,11 +1648,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1780,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1808,11 +1696,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1832,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1860,11 +1744,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1884,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1910,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1936,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1962,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1988,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2014,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2040,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2068,11 +1936,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2092,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2118,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2144,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2170,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2196,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2222,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2248,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2276,11 +2128,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2300,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2326,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2352,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2378,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2404,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2430,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2456,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2484,11 +2320,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2508,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2536,11 +2368,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2560,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2586,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2614,11 +2440,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2638,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
-      </c>
-      <c r="G69" t="s">
-        <v>96</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2664,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2690,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" t="s">
-        <v>96</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2716,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2742,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" t="s">
-        <v>96</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2768,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2794,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" t="s">
-        <v>96</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2822,11 +2632,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2846,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>105</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2872,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2898,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" t="s">
-        <v>105</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2924,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2950,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G81" t="s">
-        <v>105</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2976,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
-      </c>
-      <c r="G82" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3002,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>105</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3028,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
-      </c>
-      <c r="G84" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3054,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3082,11 +2872,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3106,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
-      </c>
-      <c r="G87" t="s">
-        <v>117</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3132,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3158,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>116</v>
-      </c>
-      <c r="G89" t="s">
-        <v>117</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3184,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3210,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>116</v>
-      </c>
-      <c r="G91" t="s">
-        <v>117</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3238,11 +3016,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3262,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
-      </c>
-      <c r="G93" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3288,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3314,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>124</v>
-      </c>
-      <c r="G95" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3340,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3366,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G97" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3392,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G98" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3418,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
-      </c>
-      <c r="G99" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3444,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3470,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3496,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3522,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>124</v>
-      </c>
-      <c r="G103" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3548,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3574,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
+        <v>111</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>124</v>
-      </c>
-      <c r="G105" t="s">
-        <v>125</v>
-      </c>
-      <c r="H105" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3600,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
-      </c>
-      <c r="G106" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3626,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G107" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3652,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3678,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>124</v>
-      </c>
-      <c r="G109" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3704,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3730,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>124</v>
-      </c>
-      <c r="G111" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3758,11 +3496,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3782,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>62</v>
-      </c>
-      <c r="G113" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3808,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
-      </c>
-      <c r="G114" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3834,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>62</v>
-      </c>
-      <c r="G115" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3860,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3886,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>62</v>
-      </c>
-      <c r="G117" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3914,11 +3640,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3938,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" t="s">
-        <v>42</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3966,11 +3688,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3990,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4018,11 +3736,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4042,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4070,11 +3784,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4094,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
-      </c>
-      <c r="G125" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4122,11 +3832,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4148,11 +3856,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4174,11 +3880,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22179.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22179.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Burgess. The Subcommittee on Commerce, Manufacturing, and Trade will now come to order. I will recognize myself for 5 minutes for the purpose of an opening statement.    Today we are continuing our Disrupter Series and focusing today on additive manufacturing, also what is known as 3D printing. Additive manufacturing has disrupted the industries it has impacted, not just by challenging incumbents, but also by lowering cost and increasing efficiency.    Harnessed properly, this is another example of how innovation is creating jobs and opportunity and helping set the stage for a revival of manufacturing in the United States.    Additive manufacturing has been around since the 1980s with the patent for stereolithography issued to Charles Hull, the founder of one of the companies testifying today, 3D Systems. About 30 years later, surveys show that about two-thirds of industrial manufacturers say they are implementing additive manufacturing either by experimenting or using it to create prototypes of finished products, and the 3D printing industry is expected to grow from the $6 billion it is today to over $20 billion in a mere 5 years' time.    3D printing has already woven its way into our manufactured products in subtle ways. For example, some of the commercial airliners we all fly will soon use 3D-printed parts in their engines, and GE will testify about that today. Many of the cars on the road have had their development sped up dramatically thanks to 3D-printed prototypes.    Additive manufacturing has plugged itself into a growing proportion of the manufacturing supply chain because the designs are flexible and they are a naturally better solution for certain tasks.    But 3D printing is also making a splash in less subtle ways. People around the globe are benefitting from prosthetic limbs, which were otherwise unaffordable. Surgeons can create accurate surgical guides which reduce errors and as a result will save lives. Scientists have begun experimentally printing human cell structures using a person's DNA. That resulted as a logical use of life's own building blocks, but certainly potentially revolutionary for patients.    In my district, 3D printing is enabling businesses to get the job done more efficiently. I have a constituent back home, his name is Adrian Murray, he runs a hotrod modification shop called Painless Performance, and he provides customers with custom wiring harnesses for their classic cars. These parts are no longer manufactured on an assembly line, but using a 3D printing prototype offered by the Specialty Equipment Manufacturers Association, Painless Performance is able to speed up the development process. And I think we are going to show a video clip of that, if the technology doesn't fail us, and I will continue talking while that runs.    [Video shown.]    As the subcommittee with jurisdiction over vehicle safety, we are especially interestedin ways that vehicle suppliers and manufacturers are using polymers and plastics to enhance safety.    Can we just turn the sound down on that, because it is mostly the visual that we want.    Carbon fiber-reinforced plastics have 12 times the energy absorption capabilities, while adding half of the weight of some comparable metal parts. Additive manufacturing is helping automakers and part suppliers integrate these innovative materials into cars, which is making a safer and improving fuel efficiency. As 3D printers become more affordable, the universe of people able to print 3D-printed objects on their own expands.    One of the things in research for this hearing, my staff found an article for me, it is actually from Australia, that it talks about Ralph Mobbs, a neurosurgeon from Prince of Wales Hospital in Sydney. And in resecting a tumor in a patient, he had to replace the top two vertebras, pretty difficult operation, and, obviously, without the proper type of prosthetic it would have been impossible.    So the surgeon worked with an Australian medical device manufacturer to craft replicas of the patient's top two vertebra out of titanium. I just want to read you a quote from the surgeon--and mind you, he is from Australia, so he talks funny, I am sure.    ``To be able to get the printed implant that you know will fit perfectly because you have already done the operation on a model, it was a pure delight. It was as if someone had switched on a light and said, 'Crikey, if this isn't the future, well, I don't know what is.'"    So, Dr. Mobbs, I agree with you: If this isn't the future, I don't know what is.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412221</t>
   </si>
   <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clarke. Good morning, Chairman Burgess and members of this morning's panel. Mr. Chairman, thank you for holding this hearing on 3D printing.    For many of us, when we think of 3D printing, we think of plastic toys, key chains, and other trinkets, but 3D printing is about more than just the novelty of printing in plastic. This technology has many applications that we are only starting to explore.    3D printers enable small-scale personalized production that gives consumers more choice and convenience. Consumers can order affordable custom-printed items, from cell phone cases to shoes and prescription eyewear.    3D printers help product designers by allowing them to print prototypes more easily. Manufacturers can print replacement parts on demand. Prosthetics can make customized to make people who have lost a limb more comfortable. And recently, a 3D-printed vertebra, as our chairman has indicated, was implanted into a child with bone cancer.    While today we are mostly printing in plastic and metal, 3D bioprinting opens a whole new world of possibilities in the medical field. Doctors may one day be able to grow needed organs for transplants or skin for prosthetic limbs or skin grafts.    The future potential of this technology is one more reason why we need to increase our Federal investments in research and innovation.    But as we think about the tremendous potential of 3D printing, we also need to consider possible risks and challenges. Here are some of the questions on my mind. How should we protect consumers when the consumer doesn't buy the product but rather the blueprint to make a product? How does 3D printing work with our existing laws on intellectual property? And what should people be able to make with 3D printers?    I am especially concerned about 3D-printed weapons. Think about this: If someone has access to a 3D printer, all they need is the right blueprint. When the gun buyer is now the gun manufacturer, who does the background check? Who is responsible for keeping weapons out of the wrong hands? This isn't theoretical. The first 3D-printed gun was made 3 years ago.    An all-plastic gun would be a violation of the Undetectable Firearms Act, but a law banning the manufacture of nonmetal guns only goes far when a plastic firearm can be made at home. And we may not be far from seeing metal guns being printed at home.    Those who design blueprints for 3D printing and provide 3D printing capability must take responsibility to ensure that their business does not endanger other lives, and we in Congress need to make sure that our laws are up to date with today's technology.    I look forward to hearing from our witnesses on the potential for 3D printing as well as your perspectives on how we deal with some of these challenges.    Having said that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. I do.</t>
   </si>
   <si>
@@ -82,6 +103,12 @@
     <t>412543</t>
   </si>
   <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kennedy. I will take 30 seconds.</t>
   </si>
   <si>
@@ -97,6 +124,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Orringer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Orringer. Thank you. Thank you, Mr. Chairman, Congresswoman Clarke, and members of the distinguished subcommittee. Thank you for the invitation to address you today.    I am honored to discuss a critically important topic, how additive manufacturing is revolutionizing the delivery of health care. In 1983----</t>
   </si>
   <si>
@@ -118,18 +148,27 @@
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman.    The Chair recognizes Mr. Amling for 5 minutes to summarize your opening statement, please.</t>
   </si>
   <si>
+    <t>Amling</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Amling. Good morning, Chairman Burgess, Ranking Member Schakowsky, members and staff of the committee, fellow witnesses, and attendees. My name is Alan Amling, and I am the Vice President of Marketing for UPS Global Logistics and Distribution. And during my 23-year tenure, I have helped our business develop and grow across all aspects of the e-economy and to launch innovative new solutions like carbon-neutral shipping.    While you are likely familiar with UPS' fleet of more than 100,000 brown trucks and our 425,000 employees globally, you may not know much about our supply chain business. More than 100 years ago, UPS started as a bike messenger in Seattle. In 2016, we operate one of the largest airlines in the world and offer global supply chain services, including ocean and air freight, ground freight, brokerage, and contract logistics, in addition to our more familiar brown package services.    Our global logistics network, made more intelligent and efficient, has the potential to radically reshape and reinvent economies. That is why we are interested in 3D printing, which could disrupt traditional manufacturing the way that e-commerce has disrupted traditional retail. Certainly, as this new technology becomes more widely available, there will be bumps in the road and hurdles to overcome, but the power of 3D printing cannot be overstated. It is disruptive not just because it is new, but because it helps small businesses and entrepreneurs do what they already need to do today, only better and less expensively.    Therefore, as 3D printing revolutionizes manufacturing, it will also affect our business of supply chains and eventually product pricing and the end consumer experience. 3D printing effectively means that businesses no longer will face minimum quantities. They will be able to order what they need when they need it. Upfront tooling cost, which is a big expense for businesses both large and small, makes 3D printing ideal for small batch production runs. And there is no tax on complexity. And what I mean by that is there is no corresponding increase in cost for a more complex design like this.    The disruptive nature of 3D printing, therefore, will create opportunities, but it will also require adjustments. As it becomes possible to send product design instructions via the Internet and print products locally, small businesses and entrepreneurs will be able to move from the idea phase to the production phase more quickly and cost effectively. Instead of delivering a product from a warehouse, products could be delivered from a 3D printing service offered at a retail outlet, such as a UPS store or right to your door.    Disruptive technology like 3D printing stands to help our customers do more with a lower environmental impact, all while benefitting consumers like you and me. It has the potential to increase profit margins within the supply chain by reducing cost, and that is good news for small businesses and entrepreneurs especially.    Additionally, it is important to understand that disruption will happen. There is almost no stopping the spread of technology and innovation. So we are either in the game or watching it, and I know what side of the equation UPS wants to be on.    And to that end, in anticipation of 3D printing's impact, UPS has already started putting 3D printers into UPS store locations. Our initial customer response was so positive that we have since expanded to more than 60 stores, with plans for continued growth.    Likewise, through our internal venture capital arm, we invested in a 3D printing manufacturer named CloudDDM and put their production facilities in the heart of our Louisville supply chain campus, just minutes from our global air hub. The operation has been up and running for a year and allows companies to order parts and prototypes to be printed late into the evening and have them delivered anywhere in the U.S. by the next morning. In doing so, UPS has helped to create a model that actually increases package demand and differentiates the company from other carriers. Now that is groundbreaking stuff.    Today, UPS is learning and adapting to new technologies, something we have done many times over our more than 100 years of operation. As proven over and over throughout history, those who embrace innovation and change early and often are the most richly rewarded, and disruptive technology, like 3D printing, has that incredible potential.    I commend the committee for their interest in understanding more about 3D printing and welcome this opportunity to share what we have learned up to this time. Thank you for your time today, and I look forward to answering questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman.    Mr. Morris, you are recognized for 5 minutes to summarize your opening statement, please.</t>
   </si>
   <si>
+    <t>Morris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Morris. Good morning, Chairman Burgess, Vice Chairman Lance, Ranking Member Schakowsky, and members and staff of the committee. My name is Ed Morris. I am the Vice President and Director for America Makes, the National Additive Manufacturing Innovation Institute, and we are consciously dual branded as America Makes, the National Manufacturing Innovation Institute.    The maker community wants to deal with America Makes. We are happy to deal with industry. In the maker community you get a little leery of institutes, too formal, too official, so that is the reason for the dual branding.    We are operated by the National Center for Defense Manufacturing and Machining, a not-for-profit 501(c)(3) company that has been in existence for over 14 years solving technical, manufacturing, and business problems for our clients.    Our mission at America Makes begins with, why do we exist? And as we all know, the U.S. manufacturing economy, the economic engine of manufacturing, is nowhere near as robust as it has historically been or needs to be. So what are we going to do about that? We are taking this incredible technology of additive manufacturing and accelerating it in the United States by dealing with the technical issues, the technical barriers, doing technology transition to companies for real products, new companies, et cetera, and then training the next-generation workforce and reinvigorating the interest of the youth of America in manufacturing as a well-paid, excellent career.    Why additive manufacturing? As has been shared, it is a disruptive game changer. And game changer is often overused, but I am comfortable with declaring that additive manufacturing absolutely is a game changer, fundamentally because when you change the game, you change the rules, and this has a whole new set of rules.    We have a lot of people come to us and talk about the excitement and their interest in additive manufacturing and say: Ed, I want to get involved in additive manufacturing.    ASME has identified seven different types of additive manufacturing, and I realize when people approach us, it is like asking me, ``Hey, Ed, I want to cook dinner. Help me cook dinner.'' And to be more specific, what heat source are you going to be using, lasers, et cetera? What materials are you going to be using? Are you going to be using polymers or plastics? Are you going to be using metals? Are you going to be using ceramics? Are you going to be using organic tissue? Are you going to be using human tissue?    Then what are you going to do with it? What is for dinner? Are you going to be serving plastic parts, mechanical parts, electronic parts? Food? 3D Systems did a demonstration of printing Oreo cookies for a demonstration that we were involved with. And you can print body parts.    One of the things that excites me is the potential of integrated mechanical and electronic 3D printing devices, and one of our key members, the University of Texas at El Paso, with the W.M. Keck Center for 3D Innovation, we have recognized them as our first satellite center, broadening our footprint in a very substantial way across the United States.    Our public partners in this adventure are the Department of Defense, the Department of Energy, Department of Commerce, Department of Education, NASA, the National Science Foundation, FAA, and the FDA, and we are strong believers in the power and wisdom of a public-private partnership.    We currently have 163 members. In correcting an era in the printed testimony, we have 55 small businesses, not 85, 43 large businesses, 13 Government partners, 10 nonprofit organizations, and 4 manufacturing extension partners, or MEPs, and they are a very valuable partner in helping doing the technology transition for this.    As of January 2016, we had an $87 million portfolio of research and development. Sample projects, our use of additive manufacturing in the foundry business, led by YoungstownBusiness Incubator, revolutionizing the foundry casting business, making sure it stays on shore, taking out costs, cycle time, and improving product performance.    We also have a project on biomedical devices with the University of Pittsburgh working on optimizing magnesium alloy for bioabsorbable cranial implants.    Applying the partnership model to education, we are doing lots of activities, including a certification program with the Society of Manufacturing Engineers, a fellowship program with the American Society of Mechanical Engineers.    We are partnering with the U.S. Department of Veterans Affairs as part of a Google.org grant to train returning military veterans. We think that is a very important service to the Nation. What better source of expertise and competency to tap, and innovative people as well.    And then we are also revolutionizing STEM education for those that want hands-on learning, making math relevant in what you produce with the capabilities.    Regarding the public-private partnership, its ability to, with cost share as the economic model, we think it is a very wise policy and business practice. With the taxpayers' investment on topics of mutual interest we are almost able to double the taxpayer's money. The industry side is able to maximize their research and development dollars. So it really is in line with the Better Buying Power vision of the Department of Defense to optimize contractor research and development and internal research and development.    And then finally, in closing, quoting a good friend, Steve Welby, the honorable secretary of defense for research and engineering, with this technology, let's disrupt ourselves before others disrupt us. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman.    Dr. Herderick, you are recognized for 5 minutes. Just summarize your opening statement, please.</t>
   </si>
   <si>
+    <t>Herderick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Herderick. Thank you. Chairman Burgess, Vice Chairman Lance, Ranking Member Schakowsky, and members of the committee, it is a privilege to share GE's thoughts on 3D printing, which represents the larger digital industrial revolution happening in the U.S. and globally.    Today, a designer can create a computer-aided design model of a part and digitally transmit it to a 3D printer to be directly manufactured. Increasingly, new designs and processes like this are being connected and managed through a digital thread where the freedom of design and manufacturing seemingly has no limits. One of GE's engineering leaders appropriately captured it when she said: Complexity is free.    My name is Dr. Ed Herderick, and I am the additive technologies leader for GE helping to spread the application of additive technology across GE's industrial portfolio. This portfolio spans across industries that build, move, power, transport, and cure the world, from jet engines and power-generation machines, to locomotives, medical imaging systems, and more.    The emergence of 3D printing and additive technologies in industry has been both sudden and disruptive. Recently, Boeing and Airbus conducted the first flight tests for their 737 MAX airplane and A320neo single-aisle jets with GE LEAP engines.    LEAP is the world's first jet engine to include 3D-printed fuel nozzles, one of which I have here on the table, which as the engine's fuel injector, mixing fuel and air in precise ways to achieve maximum fuel efficiency and lower emissions. Using metal printing, the fuel nozzles are more fuel efficient, lighter weight, and more durable compared to those made with conventional technologies.    The production of 3D-printed metal parts in jet engines would have been almost unheard of even a decade ago. Today, we are asking what else can be printed in the engine to drive performance even higher. As it is, GE Aviation will be producing 35,000 printed fuel nozzles per year at the world's first mass additive production facility in Auburn, Alabama. By 2020, we will have produced more than 100,000 metal-printed fuel nozzles.    This success of industrial implementation of additive technology in the aerospace industry is paving the way for broader applications in other industries. GE's use of additive technologies in aviation is only the tipping point of an exciting transformation underway across our 400-plus factories. By 2025, we expect additive manufacturing methods will be used in the design and manufacture of more than 20 percent of GE's new product concepts.    Our efforts in additive are part of a much broader initiative to build a digital thread through manufacturing that transforms our factories into ``Brilliant Factories.'' It is through this digital thread where additive technologies can truly emerge and realize their full potential for industries of all kinds.    In many ways, the excitement and emphasis on additive manufacturing of metals and industrial materials is the product of a more than 20-year research odyssey. As early as 1993, researchers at GE Global Research demonstrated the feasibility for binderless sintering of metal powders.    It is interesting to note the development and material advancement between then and now. In 1993, the laser used had only 7.5 watts of power, a scanning speed of 2 millimeters per second, and produced parts that were 30 percent dense. Today, we are using lasers with 200 to 1,000 watts of power, scanning speeds of 1,000 millimeters per second, and produce parts that are greater than 99.9 percent dense straight out of the box.    Further, when implemented with care, the performance of additively produced metal parts today meets and even exceeds that of standard casting techniques, and this is a critical point. I cannot emphasize enough the importance of understanding the physical metallurgy in order to produce this high-quality repeatable performance as the materials' properties are determined during the printing process.    Manufacturers have had centuries to understand the physical properties of materials that have been traditionally milled or machined into the desired shape. With additive, and metals in particular, we have been working for 20 years. Fortunately, GE, through its Global Research Center, is home to some of the world's foremost experts in materials and additive techniques to help us make these evaluations.    I would like to highlight a particular example where GE printed a miniaturized version of a steam turbine rotor to test a new idea GE researchers have for reducing the cost of water desalination. The rotor, roughly 6 inches long, is being used to demonstrate cost-effective water and salt separation. In that case, metal printing empowered the team to design something that could not be made in any other way and has the potential to dramatically improve the energy efficiency for this critical water desalinization process.    In order to accelerate new applications like this one, GE has built a new facility in Pittsburgh, Pennsylvania, dedicated solely to 3D printing called the Center for Additive Technology Advancement. And that was an ARPA--E program and partnership.    So I would like to highlight some of our work and the critical importance of building a robust ecosystem in additive technologies across the U.S. We are proud to be a partner of and applaud the America Makes National Additive Manufacturing Innovation Institute in Youngstown, Ohio, which has been a leader in building this ecosystem of manufacturers, machine makers, and other key stakeholders in the additive supply chain. As we go forward, GE will continue to look for ways to strengthen the additive ecosystem here in the U.S.    In closing, additive manufacturing is a transformative technology that is opening up new frontiers and is an important tool in realizing GE's ``Brilliant Factory'' vision. It is and will have far-reaching impacts that accelerate the introduction of new high-performance products that will support global infrastructure for years to come.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
@@ -181,6 +220,12 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Schakowsky</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman.    I encountered 3D printing in 2013. We had a manufacturing showcase, and Congressman John Sarbanes brought in a business from his district, Direct Dimensions, and they took a picture, three or four, and made this 3D print, a bust of me in plastic. It was very interesting and a little strange. But I did save it.    I want to say this is part of our series, as I am sure our chairman said, of our Disrupter Series, and what we are hearing today are the wonders of this and the positive.    And I just want to say before I ask questions along those lines, that these technologies can be in the hands of all kinds of people as we go forward. And I hope, Mr. Chairman, that we will also have a hearing on what are the things that we ought to watch out for.    I know that Congresswoman Clarke raised the issue of the ability to produce perhaps small arms. But who knows? And so I think we ought to be looking ahead to and thinking about if there are threats to our country because of these kinds of new technologies and in the wrong hands, not only through our concerns about competition around the world and making sure that we can advance making an America, but actual threats.    But I wanted to focus on the positive too. At Northwestern University, which is in my district in Evanston, Illinois, researchers are pioneering biocompatible inks made of graphene that are used to 3D print scaffolding for tissue transplants and regeneration. Very exciting. These graphene structures can stimulate cell regeneration and also are cost effective.    So, Mr. Orringer, could these kinds of cutting-edge treatments become more widely accessible through the use of 3D printers?</t>
   </si>
   <si>
@@ -208,6 +253,12 @@
     <t>412278</t>
   </si>
   <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you very much.    It is great to have everybody here. What an interesting series we have had. And as I really grasp technology when I was in grad school in the mid-1990s, not even that long ago, and it just really disrupted the typewriter and the calculator industry because we did the same thing that they were already doing, just did it more efficient. I think also it disrupted the wite-out industry, when I got to go on a word processor, didn't have to use it anymore. But it really just already took what we were doing and just made it better.    And what is happening now is you are actually taking this technology and just doing things we could never do before. It is amazing in the body parts and the replacement, you couldn't do those vertebra probably in any other type of manufacture.    I have a manufacturing background, and we take blocks of steel and make dyes out of it. We whittle it down, for lack of a better term. That is actually what we do, just computer-controlled machines. We are now creating stuff by printing it. By being additive, I hope it doesn't replace what we do, but it certainly enhances the precision of what you can do in specific things. So it is fascinating to be here.    I am going focus with UPS. Their Worldport is just outside of my district. But a lot of your employees and a lot of your customers are in my district, Zappos shoes, Bestbuy.com, and Geek Squad, which is a pretty interesting place to go. They don't have a plant manager. They have a mayor. And they don't have community leaders. They have ambassadors. So it is just an interesting business concept, but great, great people to be around.    But a lot of it is based on supply chain. I know a lot of us think of UPS as--and you said it in kind of your opening statement--the brown trucks and the airplanes that are flying in and out of Louisville. But I am more interested in what UPS really does. You talked about it a little bit. I would just give you some time to elaborate on how UPS actually helps small businesses with supply chain management to build their businesses and how 3D printing is a big part of that mission.</t>
   </si>
   <si>
@@ -274,6 +325,12 @@
     <t>412290</t>
   </si>
   <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman. A very interesting hearing.    Mr. Orringer, balancing health and safety is obviously an important mission for medical device manufacturers and Federal regulators alike. What steps are the Federal regulators taking in order to educate themselves and the public about 3D-printed surgical implants? Has this approach been proactive? And what else, in your judgment, could be done?</t>
   </si>
   <si>
@@ -298,6 +355,9 @@
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman. The gentleman yields back.    The Chair recognizes the gentleman from California, Mr. Cardenas, for 5 minutes for your questions, please.</t>
   </si>
   <si>
+    <t>Cardenas</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cardenas. Thank you very much for imparting your knowledge with us on what is going on in this dynamic, fast-changing industry.    The first question is from my wife. When do you think that they will be able to make a husband's brain? I didn't say a human brain, I said a husband's brain to help someone pick up after oneself, remember anniversaries, et cetera. Just kidding, just kidding. That is the impossible, I know.    Now, on a more serious note, we have noticed that in America's libraries we have had an increase of donations and opportunities where libraries are investing in 3D printers now to the tune of over 400 libraries have access to little or no cost to individuals going to the library.    To me, this is a very important issue for making sure that we have access to as many minds and as many inquisitive folks so that they can get turned on to how wonderful it is and the potential of getting a job in the industry.    How committed is the industry to advancing that kind of effort?</t>
   </si>
   <si>
@@ -331,6 +391,12 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman.    And thank you all to your panelists for your actually exciting testimony. I wasn't sure when I was reading this initially.    But I think why this is so exciting is because I think this is the way to draw young people back into manufacturing. We have in central Indiana, in my district, about 50 middle and high schools that have 3D printers that are being utilized in the classroom. Indiana is one of the country's most manufacturing-intensive States.    And then before coming to Congress, I was senior vice president at our State's community college, and where I learned about 3D printing during that time period, but I think we still need to make sure that the adults and the educators who are working with our young people have an understanding about this 3D printing.    I had an event, and we welcomed 3D Parts Manufacturing to educate school counselors at a school counselor event, to try to educate them about 3D printing, because they are the ones who influence our children and get them excited about these things.    So I am curious, in expanding on the public-private partnerships, which I completely believe in, how do we do a better job bringing industry, collaborating with our educators and with either our nonprofits, and try and get the young people more engaged in 3D printing and skills that they need? What are some best practices you have seen? How do we expand this? Because I think it is one of the manufacturing tools of the future. What do we need to be doing better?    And believe it or not, I actually think calling the place where they work maker spaces actually helps because young people are not as interested in manufacturing, I think, as they are in making.    Mr. Morris, you want to start?</t>
   </si>
   <si>
@@ -350,6 +416,12 @@
   </si>
   <si>
     <t>412280</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman.    And thanks to each of you. It is an amazing technology, and we really are just only beginning to see what all we are going to be able to do in the future.    And, Mr. Amling, I don't have a question, but certainly welcome. UPS was my very first job in my life as a 15-year-old. I loaded an 18-wheeler every night with boxes. And I am the one who packs the trunk on the family trips.</t>
@@ -806,7 +878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,7 +886,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,3053 +908,3579 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
       <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G71" t="s">
+        <v>103</v>
+      </c>
       <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G73" t="s">
+        <v>103</v>
+      </c>
       <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G75" t="s">
+        <v>103</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>113</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s">
+        <v>113</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
+        <v>113</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s">
+        <v>113</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s">
+        <v>47</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s">
+        <v>113</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G87" t="s">
+        <v>125</v>
+      </c>
       <c r="H87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G88" t="s">
+        <v>47</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G89" t="s">
+        <v>125</v>
+      </c>
       <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G91" t="s">
+        <v>125</v>
+      </c>
       <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G93" t="s">
+        <v>134</v>
+      </c>
       <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G94" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G95" t="s">
+        <v>134</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>111</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G97" t="s">
+        <v>134</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G98" t="s">
+        <v>50</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>111</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G99" t="s">
+        <v>134</v>
+      </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G100" t="s">
+        <v>50</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>111</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G101" t="s">
+        <v>134</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G102" t="s">
+        <v>50</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G103" t="s">
+        <v>134</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G104" t="s">
+        <v>50</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>111</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G105" t="s">
+        <v>134</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>111</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G107" t="s">
+        <v>134</v>
+      </c>
       <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G108" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>111</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G109" t="s">
+        <v>134</v>
+      </c>
       <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G110" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>111</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G111" t="s">
+        <v>134</v>
+      </c>
       <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>54</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G113" t="s">
+        <v>68</v>
+      </c>
       <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G114" t="s">
+        <v>47</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>54</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G115" t="s">
+        <v>68</v>
+      </c>
       <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G116" t="s">
+        <v>47</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>54</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G117" t="s">
+        <v>68</v>
+      </c>
       <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G119" t="s">
+        <v>47</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G121" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G123" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G125" t="s">
+        <v>36</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>147</v>
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22179.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22179.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Burgess</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412221</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Clarke</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Pallone</t>
   </si>
   <si>
@@ -220,6 +232,9 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Schakowsky</t>
   </si>
   <si>
@@ -323,6 +338,9 @@
   </si>
   <si>
     <t>412290</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Lance</t>
@@ -878,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,3576 +929,3848 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>47</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" t="s">
-        <v>50</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>54</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G69" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H69" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G71" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
-      </c>
-      <c r="G72" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
-      </c>
-      <c r="G74" t="s">
-        <v>47</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G75" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>113</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>119</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
-      </c>
-      <c r="G78" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s">
-        <v>113</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>119</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s">
-        <v>47</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>51</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>113</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>119</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" t="s">
-        <v>47</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s">
-        <v>113</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>119</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" t="s">
-        <v>47</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" t="s">
-        <v>113</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>119</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G87" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" t="s">
-        <v>47</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G89" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
-      </c>
-      <c r="G90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G91" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G93" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I93" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
-      </c>
-      <c r="G94" t="s">
-        <v>44</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>48</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I95" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
-      </c>
-      <c r="G96" t="s">
-        <v>44</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>48</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G97" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
-      </c>
-      <c r="G98" t="s">
-        <v>50</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>54</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G99" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I99" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
-      </c>
-      <c r="G100" t="s">
-        <v>50</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>54</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G101" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" t="s">
-        <v>50</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G103" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H103" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I103" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104" t="s">
-        <v>50</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>54</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G105" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H105" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G106" t="s">
-        <v>50</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>54</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G107" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I107" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
-      </c>
-      <c r="G108" t="s">
-        <v>36</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G109" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
-      </c>
-      <c r="G110" t="s">
-        <v>36</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G111" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I111" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G113" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H113" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
-      </c>
-      <c r="G114" t="s">
-        <v>47</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>51</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G115" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H115" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I115" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
-      </c>
-      <c r="G116" t="s">
-        <v>47</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>51</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G117" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H117" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I117" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
-      </c>
-      <c r="G119" t="s">
-        <v>47</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>51</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
-      </c>
-      <c r="G121" t="s">
-        <v>36</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>40</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
-      </c>
-      <c r="G123" t="s">
-        <v>36</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>40</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
-      </c>
-      <c r="G125" t="s">
-        <v>36</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>40</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>171</v>
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
